--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\UltraVoron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F58A5BB5-03A4-47CB-AE9D-C60421BC8C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC6E84-8EB3-4EA3-A9EA-9E181E708E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10524" yWindow="5100" windowWidth="24996" windowHeight="16404"/>
+    <workbookView xWindow="1992" yWindow="6624" windowWidth="25788" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generated_bom (1)" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -993,14 +993,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E121" totalsRowShown="0">
-  <autoFilter ref="A1:E121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E121" totalsRowShown="0">
+  <autoFilter ref="A1:E121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Category"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Qty"/>
-    <tableColumn id="4" name="Notes"/>
-    <tableColumn id="5" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Qty"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1302,11 +1302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
